--- a/Data/LR_DWA_Sprint_I_6 (1).xlsx
+++ b/Data/LR_DWA_Sprint_I_6 (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA Sprint\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECDF3FE-172C-4B39-89BE-3ECABAB72678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="163">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -518,7 +519,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,7 +572,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,14 +883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J56" sqref="A56:J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
@@ -2350,7 +2351,19 @@
         <v>28</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2364,13 +2377,13 @@
         <v>28</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
@@ -2390,13 +2403,13 @@
         <v>28</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
@@ -2419,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
         <v>133</v>
@@ -2439,16 +2452,16 @@
         <v>162</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
@@ -2471,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F61" t="s">
         <v>145</v>
@@ -2494,16 +2507,16 @@
         <v>29</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
         <v>10</v>
@@ -2520,13 +2533,13 @@
         <v>29</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
@@ -2546,16 +2559,16 @@
         <v>29</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s">
         <v>10</v>
@@ -2572,13 +2585,13 @@
         <v>29</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H65" t="s">
         <v>17</v>
@@ -2598,13 +2611,13 @@
         <v>29</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
@@ -2624,13 +2637,13 @@
         <v>29</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
@@ -2653,7 +2666,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F68" t="s">
         <v>151</v>
@@ -2676,16 +2689,16 @@
         <v>29</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I69" t="s">
         <v>10</v>
@@ -2699,19 +2712,19 @@
         <v>162</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
         <v>10</v>
@@ -2728,16 +2741,16 @@
         <v>30</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
         <v>10</v>
@@ -2754,13 +2767,13 @@
         <v>30</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H72" t="s">
         <v>18</v>
@@ -2780,13 +2793,13 @@
         <v>30</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H73" t="s">
         <v>18</v>
@@ -2806,44 +2819,18 @@
         <v>30</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H74" t="s">
         <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75">
-        <v>30</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" t="s">
-        <v>161</v>
-      </c>
-      <c r="H75" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" t="s">
         <v>10</v>
       </c>
     </row>
